--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy-my.sharepoint.com/personal/ignacia_silva_student_innoenergy_com/Documents/Escritorio/Master/Energy Policy/Model_MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC08737-FDC2-4356-BBA1-853BC7A4D517}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D936AF9A-67C7-4E89-BAEC-508783A2DB97}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1058" yWindow="1238" windowWidth="4770" windowHeight="2355" tabRatio="901" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -794,6 +794,24 @@
   </si>
   <si>
     <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>NGR</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN_DEM</t>
+  </si>
+  <si>
+    <t>DMD</t>
   </si>
 </sst>
 </file>
@@ -3597,7 +3615,7 @@
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3661,13 +3679,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="186" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="187" fontId="43" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="186" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1263">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6431,7 +6454,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6536,8 +6559,12 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" s="34" t="s">
         <v>62</v>
       </c>
@@ -6553,8 +6580,12 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="D8" s="34" t="s">
         <v>61</v>
       </c>
@@ -6569,8 +6600,12 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
@@ -6607,8 +6642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6719,11 +6754,15 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>39</v>
       </c>
@@ -6749,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6824,11 +6863,21 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" s="13" t="str">
         <f>SEC_Processes!E7</f>
         <v>Electricity - Final Energy Demand</v>
       </c>
+      <c r="D7" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>ELC_GRID_RES</v>
+      </c>
+      <c r="E7" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELC_FIN</v>
+      </c>
       <c r="F7" s="19">
         <v>1</v>
       </c>
@@ -6837,10 +6886,10 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="D9" s="37"/>
+      <c r="D8" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="E10" s="37"/>
@@ -6858,7 +6907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
@@ -6920,45 +6969,45 @@
       <c r="B7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <f>C12*3.6</f>
         <v>393.80400000000003</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <f t="shared" ref="D8:I8" si="0">D12*3.6</f>
         <v>442.11863013698968</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <f t="shared" si="0"/>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <f t="shared" si="0"/>
         <v>698.03424657534129</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>953.94986301369943</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <f t="shared" si="0"/>
         <v>1081.9076712328817</v>
       </c>
@@ -7065,15 +7114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7217,6 +7257,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7224,14 +7273,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7245,6 +7286,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
